--- a/output.xlsx
+++ b/output.xlsx
@@ -32,11 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="4">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>

--- a/output.xlsx
+++ b/output.xlsx
@@ -399,13 +399,2122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>#</v>
+      </c>
+      <c r="B1" t="str">
+        <v>seller</v>
+      </c>
+      <c r="C1" t="str">
+        <v>buyer</v>
+      </c>
+      <c r="D1" t="str">
+        <v>date</v>
+      </c>
+      <c r="E1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>unit</v>
+      </c>
+      <c r="G1" t="str">
+        <v>unit-price</v>
+      </c>
+      <c r="H1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="I1" t="str">
+        <v>item-description</v>
+      </c>
+      <c r="J1" t="str">
+        <v>pk_sender</v>
+      </c>
+      <c r="K1" t="str">
+        <v>pk_recipient</v>
+      </c>
+      <c r="L1" t="str">
+        <v>hashed-AT-info</v>
+      </c>
+      <c r="M1" t="str">
+        <v>block_height</v>
+      </c>
+      <c r="N1" t="str">
+        <v>transaction_hash</v>
+      </c>
+      <c r="O1" t="str">
+        <v>previous_hash</v>
+      </c>
+      <c r="P1" t="str">
+        <v>timestamp</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>nonce</v>
+      </c>
+      <c r="R1" t="str">
+        <v>merkle_root</v>
+      </c>
+      <c r="S1" t="str">
+        <v>HE_pk_sender(amount)</v>
+      </c>
+      <c r="T1" t="str">
+        <v>HE_pk_recipient(amount)</v>
+      </c>
+      <c r="U1" t="str">
+        <v>original_amount_cents</v>
+      </c>
+      <c r="V1" t="str">
+        <v>encryptable_amount</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="D2">
+        <v>45860</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2" t="str">
+        <v>package</v>
+      </c>
+      <c r="G2">
+        <v>3245.24</v>
+      </c>
+      <c r="H2">
+        <v>100602.42</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Training and Support Package</v>
+      </c>
+      <c r="J2" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K2" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L2" t="str">
+        <v>1664198149d7ece3f3f40ffe7c088d338dd3a692928d4f7c8260395e6857351d</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <v>1a886182da25f16ae73789f01560584665144a52e841bc4e133a28a42b003855</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q2">
+        <v>985024</v>
+      </c>
+      <c r="R2" t="str">
+        <v>32dff9237e20ea17ffe9eca670f702b1fb0c188c961ee7db8233398fae5b5035</v>
+      </c>
+      <c r="S2" t="str">
+        <v>554265686051</v>
+      </c>
+      <c r="T2" t="str">
+        <v>213161550548</v>
+      </c>
+      <c r="U2">
+        <v>10060242</v>
+      </c>
+      <c r="V2" t="str">
+        <v>861189</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>TechCorp Solutions</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="D3">
+        <v>45754</v>
+      </c>
+      <c r="E3">
+        <v>69</v>
+      </c>
+      <c r="F3" t="str">
+        <v>hour</v>
+      </c>
+      <c r="G3">
+        <v>141.72</v>
+      </c>
+      <c r="H3">
+        <v>9778.79</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Professional Consulting Hours</v>
+      </c>
+      <c r="J3" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K3" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L3" t="str">
+        <v>8cc0325b1c7e9478987eec2cdcd8d7a6697aa02bca0b844b9a371a10e2db41ad</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="str">
+        <v>a8327322cef18ae0c77a8b269071e4a29f5a8e85e5c00bd95e09d2e6a95a20f1</v>
+      </c>
+      <c r="O3" t="str">
+        <v>1a886182da25f16ae73789f01560584665144a52e841bc4e133a28a42b003855</v>
+      </c>
+      <c r="P3">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q3">
+        <v>503179</v>
+      </c>
+      <c r="R3" t="str">
+        <v>fb33149068fa2b2aedcdc51f174feb32a7db869bf5dd8354c5bdd7b5c1fa736f</v>
+      </c>
+      <c r="S3" t="str">
+        <v>701787597945</v>
+      </c>
+      <c r="T3" t="str">
+        <v>323971711367</v>
+      </c>
+      <c r="U3">
+        <v>977879</v>
+      </c>
+      <c r="V3" t="str">
+        <v>977879</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="D4">
+        <v>45826</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4" t="str">
+        <v>month</v>
+      </c>
+      <c r="G4">
+        <v>1217.65</v>
+      </c>
+      <c r="H4">
+        <v>98629.8</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Backup and Recovery Solution</v>
+      </c>
+      <c r="J4" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K4" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3f212094bd4b0e0d0f917a9a05469b3364506b384424ba8b6cd036c19595da9e</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="str">
+        <v>3e950f3707fd9f26518f69e6e31fad139d2d3b1ee03baae40ba86634a01e89c8</v>
+      </c>
+      <c r="O4" t="str">
+        <v>a8327322cef18ae0c77a8b269071e4a29f5a8e85e5c00bd95e09d2e6a95a20f1</v>
+      </c>
+      <c r="P4">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q4">
+        <v>305635</v>
+      </c>
+      <c r="R4" t="str">
+        <v>ab2e16289b9870ccffc7606029afa72d40c2c68197113a73ffff8e90ce1c5af4</v>
+      </c>
+      <c r="S4" t="str">
+        <v>953815484341</v>
+      </c>
+      <c r="T4" t="str">
+        <v>1013668666454</v>
+      </c>
+      <c r="U4">
+        <v>9862980</v>
+      </c>
+      <c r="V4" t="str">
+        <v>663927</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="D5">
+        <v>45823</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" t="str">
+        <v>license</v>
+      </c>
+      <c r="G5">
+        <v>12302.5</v>
+      </c>
+      <c r="H5">
+        <v>209142.44</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Data Analytics Platform</v>
+      </c>
+      <c r="J5" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K5" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L5" t="str">
+        <v>509af834fb5b618310198e80ac87e084900e89975876f5fb2d6c0a3cb71addac</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <v>87cf9fdcb6f4418ff89311ff55f62a9ad410fe8de1403ac7d422b51b98582a9b</v>
+      </c>
+      <c r="O5" t="str">
+        <v>3e950f3707fd9f26518f69e6e31fad139d2d3b1ee03baae40ba86634a01e89c8</v>
+      </c>
+      <c r="P5">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q5">
+        <v>898476</v>
+      </c>
+      <c r="R5" t="str">
+        <v>63d3864d72938e8a5f2dfe78ff882214729a98bffec38a61396ef73428602a24</v>
+      </c>
+      <c r="S5" t="str">
+        <v>18744809313</v>
+      </c>
+      <c r="T5" t="str">
+        <v>478094511834</v>
+      </c>
+      <c r="U5">
+        <v>20914244</v>
+      </c>
+      <c r="V5" t="str">
+        <v>471904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="C6" t="str">
+        <v>TechCorp Solutions</v>
+      </c>
+      <c r="D6">
+        <v>45859</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6" t="str">
+        <v>unit</v>
+      </c>
+      <c r="G6">
+        <v>5358.18</v>
+      </c>
+      <c r="H6">
+        <v>385789.28</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Hardware Equipment Servers</v>
+      </c>
+      <c r="J6" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K6" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L6" t="str">
+        <v>dd0dab39414ed682994eea6de8151f060638fe03fedbcfacea09ac2340f264d6</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="str">
+        <v>8ebec87eb59064a5db45de98cfc294611855f0463571b83464d281c4d7d54618</v>
+      </c>
+      <c r="O6" t="str">
+        <v>87cf9fdcb6f4418ff89311ff55f62a9ad410fe8de1403ac7d422b51b98582a9b</v>
+      </c>
+      <c r="P6">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q6">
+        <v>217242</v>
+      </c>
+      <c r="R6" t="str">
+        <v>7449b1a8985265bfc7539b97c96e37467a6866cf37b3cf060fa633dbe981a9d9</v>
+      </c>
+      <c r="S6" t="str">
+        <v>405387490476</v>
+      </c>
+      <c r="T6" t="str">
+        <v>232844010333</v>
+      </c>
+      <c r="U6">
+        <v>38578928</v>
+      </c>
+      <c r="V6" t="str">
+        <v>760599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="D7">
+        <v>45876</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7" t="str">
+        <v>package</v>
+      </c>
+      <c r="G7">
+        <v>2889.48</v>
+      </c>
+      <c r="H7">
+        <v>60679.15</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Training and Support Package</v>
+      </c>
+      <c r="J7" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K7" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L7" t="str">
+        <v>4ab9a8d66109402c0c7d46e2f22a63c7be2a10d90607988b76378766d57445b1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <v>647a055bb00002dd5b6be22cfd8eb0c7b6f1e68d02360dfdb1c17c32d19826a1</v>
+      </c>
+      <c r="O7" t="str">
+        <v>8ebec87eb59064a5db45de98cfc294611855f0463571b83464d281c4d7d54618</v>
+      </c>
+      <c r="P7">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q7">
+        <v>551891</v>
+      </c>
+      <c r="R7" t="str">
+        <v>a07b9219ca2a9de5dcb6639bcf35fb73e473f576c98f47f16c821b4cad0e1a09</v>
+      </c>
+      <c r="S7" t="str">
+        <v>444052351587</v>
+      </c>
+      <c r="T7" t="str">
+        <v>84769173560</v>
+      </c>
+      <c r="U7">
+        <v>6067915</v>
+      </c>
+      <c r="V7" t="str">
+        <v>957330</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="D8">
+        <v>45892</v>
+      </c>
+      <c r="E8">
+        <v>96</v>
+      </c>
+      <c r="F8" t="str">
+        <v>project</v>
+      </c>
+      <c r="G8">
+        <v>49210.25</v>
+      </c>
+      <c r="H8">
+        <v>4724184.17</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Mobile Application Development</v>
+      </c>
+      <c r="J8" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K8" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L8" t="str">
+        <v>9d0fffac53f6e9f5415878fa137b18393fcf92c7ef57eeb2ef41586552909711</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <v>e56af8988901169b4e624185d561ba8c8c82e433744a84d07c6838369508eb57</v>
+      </c>
+      <c r="O8" t="str">
+        <v>647a055bb00002dd5b6be22cfd8eb0c7b6f1e68d02360dfdb1c17c32d19826a1</v>
+      </c>
+      <c r="P8">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q8">
+        <v>276077</v>
+      </c>
+      <c r="R8" t="str">
+        <v>3d1dc15f68b0d60c1ff0328ef10f654ae9878e91d6a64991971f05c6761520b2</v>
+      </c>
+      <c r="S8" t="str">
+        <v>434174919739</v>
+      </c>
+      <c r="T8" t="str">
+        <v>572373277552</v>
+      </c>
+      <c r="U8">
+        <v>472418417</v>
+      </c>
+      <c r="V8" t="str">
+        <v>200363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Digital Services Ltd</v>
+      </c>
+      <c r="D9">
+        <v>45918</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9" t="str">
+        <v>project</v>
+      </c>
+      <c r="G9">
+        <v>45763.31</v>
+      </c>
+      <c r="H9">
+        <v>1098319.45</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Mobile Application Development</v>
+      </c>
+      <c r="J9" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K9" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L9" t="str">
+        <v>5cd7fe21ea9c8125c83e633e2a21f3d03acb60c85d7b5bdbd240acdd700296f1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="str">
+        <v>79f0f3bab046caa390261825df70f48572c9c8a07f522e0ea6f9e8e2f83b61a2</v>
+      </c>
+      <c r="O9" t="str">
+        <v>e56af8988901169b4e624185d561ba8c8c82e433744a84d07c6838369508eb57</v>
+      </c>
+      <c r="P9">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q9">
+        <v>565511</v>
+      </c>
+      <c r="R9" t="str">
+        <v>f4f0f6de800ed7c15fa50880906983ba1748192da17d838809ae0d29342d9a8b</v>
+      </c>
+      <c r="S9" t="str">
+        <v>569986176072</v>
+      </c>
+      <c r="T9" t="str">
+        <v>671642112815</v>
+      </c>
+      <c r="U9">
+        <v>109831945</v>
+      </c>
+      <c r="V9" t="str">
+        <v>465426</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Digital Services Ltd</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="D10">
+        <v>45773</v>
+      </c>
+      <c r="E10">
+        <v>73</v>
+      </c>
+      <c r="F10" t="str">
+        <v>hour</v>
+      </c>
+      <c r="G10">
+        <v>185.93</v>
+      </c>
+      <c r="H10">
+        <v>13572.9</v>
+      </c>
+      <c r="I10" t="str">
+        <v>System Integration Services</v>
+      </c>
+      <c r="J10" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K10" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L10" t="str">
+        <v>ac1c3f9d0f4c600c2e06bb9036c2a85c3e7d3339ed19502f3280a6311a2e09a4</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="str">
+        <v>95cd16ccd9632b45b2f96bd51fe1d1e8ccb18d41ff2c9e25301674f4413b5510</v>
+      </c>
+      <c r="O10" t="str">
+        <v>79f0f3bab046caa390261825df70f48572c9c8a07f522e0ea6f9e8e2f83b61a2</v>
+      </c>
+      <c r="P10">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q10">
+        <v>938061</v>
+      </c>
+      <c r="R10" t="str">
+        <v>15839c30e24bef31310874929e0fe8216a7414f940e5e0264611102492829377</v>
+      </c>
+      <c r="S10" t="str">
+        <v>363035867706</v>
+      </c>
+      <c r="T10" t="str">
+        <v>629200914871</v>
+      </c>
+      <c r="U10">
+        <v>1357290</v>
+      </c>
+      <c r="V10" t="str">
+        <v>335173</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="D11">
+        <v>45780</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11" t="str">
+        <v>hour</v>
+      </c>
+      <c r="G11">
+        <v>147.52</v>
+      </c>
+      <c r="H11">
+        <v>11801.82</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Professional Consulting Hours</v>
+      </c>
+      <c r="J11" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K11" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L11" t="str">
+        <v>5ec4b230835699818a498089daf371bea2c5ff02aaffa33978fa606b595d963f</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
+        <v>50fd19b7f42e5f00fe167c26e294dc67978775710947a42e73641c9e3da84e43</v>
+      </c>
+      <c r="O11" t="str">
+        <v>95cd16ccd9632b45b2f96bd51fe1d1e8ccb18d41ff2c9e25301674f4413b5510</v>
+      </c>
+      <c r="P11">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q11">
+        <v>735215</v>
+      </c>
+      <c r="R11" t="str">
+        <v>da0bef85eab11ed64e41b04a91bf0c4e3c348645a9f0ba5ec4ce550429a28481</v>
+      </c>
+      <c r="S11" t="str">
+        <v>783012482192</v>
+      </c>
+      <c r="T11" t="str">
+        <v>479329025729</v>
+      </c>
+      <c r="U11">
+        <v>1180182</v>
+      </c>
+      <c r="V11" t="str">
+        <v>158065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Digital Services Ltd</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="D12">
+        <v>45805</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12" t="str">
+        <v>month</v>
+      </c>
+      <c r="G12">
+        <v>901.7</v>
+      </c>
+      <c r="H12">
+        <v>51396.87</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Database Management Service</v>
+      </c>
+      <c r="J12" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K12" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L12" t="str">
+        <v>d76d75347aa39cd8ee2291908210cdba1b7e566f3ba6f1f4da5ee30898e33a15</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="str">
+        <v>80ba7a7533abcbab9cca891faeaa62fcdeb8cb15629bdef5b3dbde3e5b859bd7</v>
+      </c>
+      <c r="O12" t="str">
+        <v>50fd19b7f42e5f00fe167c26e294dc67978775710947a42e73641c9e3da84e43</v>
+      </c>
+      <c r="P12">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q12">
+        <v>781920</v>
+      </c>
+      <c r="R12" t="str">
+        <v>1c098068919f32f1b0ff0b5fb43e7e6913f152c3c7835f1b5d96b93fe127f318</v>
+      </c>
+      <c r="S12" t="str">
+        <v>480339091744</v>
+      </c>
+      <c r="T12" t="str">
+        <v>695473367794</v>
+      </c>
+      <c r="U12">
+        <v>5139687</v>
+      </c>
+      <c r="V12" t="str">
+        <v>29102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="D13">
+        <v>45799</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13" t="str">
+        <v>GB-month</v>
+      </c>
+      <c r="G13">
+        <v>0.06</v>
+      </c>
+      <c r="H13">
+        <v>3.23</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Cloud Storage Service Monthly</v>
+      </c>
+      <c r="J13" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K13" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L13" t="str">
+        <v>0ad431ba8ccfb5e6a57bb78162f26c98374c8796e8c5ae4e2ff53b84c5f4032d</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="str">
+        <v>f38017891ad18be40171541a694e9980181673e7bf8d8d6d6d695a97f319c441</v>
+      </c>
+      <c r="O13" t="str">
+        <v>80ba7a7533abcbab9cca891faeaa62fcdeb8cb15629bdef5b3dbde3e5b859bd7</v>
+      </c>
+      <c r="P13">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q13">
+        <v>867977</v>
+      </c>
+      <c r="R13" t="str">
+        <v>f5244ac07111eec554c576dc0267ebcfd320a5326b7154030212c58a9380864d</v>
+      </c>
+      <c r="S13" t="str">
+        <v>827208882617</v>
+      </c>
+      <c r="T13" t="str">
+        <v>65821535184</v>
+      </c>
+      <c r="U13">
+        <v>323</v>
+      </c>
+      <c r="V13" t="str">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="D14">
+        <v>45929</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14" t="str">
+        <v>hour</v>
+      </c>
+      <c r="G14">
+        <v>179.17</v>
+      </c>
+      <c r="H14">
+        <v>10750.12</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Professional Consulting Hours</v>
+      </c>
+      <c r="J14" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K14" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L14" t="str">
+        <v>09382a6c51168b780054539c3ade62de489bc18ef2be9b3d903bfe1a8866817f</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="str">
+        <v>2491c1d00dec3abcfdda628319d970b9f1c248633f6bf753408d1ca198f7ab10</v>
+      </c>
+      <c r="O14" t="str">
+        <v>f38017891ad18be40171541a694e9980181673e7bf8d8d6d6d695a97f319c441</v>
+      </c>
+      <c r="P14">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q14">
+        <v>125089</v>
+      </c>
+      <c r="R14" t="str">
+        <v>72beaf3d68ffdce22447eefbba246a05f4652a54a786e9fd686338226ac204c6</v>
+      </c>
+      <c r="S14" t="str">
+        <v>23178533710</v>
+      </c>
+      <c r="T14" t="str">
+        <v>357131461106</v>
+      </c>
+      <c r="U14">
+        <v>1075012</v>
+      </c>
+      <c r="V14" t="str">
+        <v>52895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="D15">
+        <v>45861</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="F15" t="str">
+        <v>project</v>
+      </c>
+      <c r="G15">
+        <v>39698.33</v>
+      </c>
+      <c r="H15">
+        <v>2699486.54</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Mobile Application Development</v>
+      </c>
+      <c r="J15" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K15" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L15" t="str">
+        <v>533e1a7179d7a6a6aae4544ff4e797f78e39c3c7aff356922940632f1fcc0c41</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="str">
+        <v>ac1bad061e61e1220caa8ca983e2be11950502aec7f8ceccd5dbbc765f84bbe7</v>
+      </c>
+      <c r="O15" t="str">
+        <v>2491c1d00dec3abcfdda628319d970b9f1c248633f6bf753408d1ca198f7ab10</v>
+      </c>
+      <c r="P15">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q15">
+        <v>537538</v>
+      </c>
+      <c r="R15" t="str">
+        <v>8cbf34a003c8a71a0b5e2209aa3377e70a17b9f4986200c610b9f843440bbdfc</v>
+      </c>
+      <c r="S15" t="str">
+        <v>363710703293</v>
+      </c>
+      <c r="T15" t="str">
+        <v>975392866485</v>
+      </c>
+      <c r="U15">
+        <v>269948654</v>
+      </c>
+      <c r="V15" t="str">
+        <v>109766</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="D16">
+        <v>45793</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16" t="str">
+        <v>project</v>
+      </c>
+      <c r="G16">
+        <v>41143.68</v>
+      </c>
+      <c r="H16">
+        <v>658298.85</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Mobile Application Development</v>
+      </c>
+      <c r="J16" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K16" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L16" t="str">
+        <v>672113860fa27512f4e6eec79b29fefbe602494eff7f1f80ba32a59b018783b4</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="str">
+        <v>beca80cec063127449d2d3864639c24b952c2110f379b3e5f66c45786bf1e61a</v>
+      </c>
+      <c r="O16" t="str">
+        <v>ac1bad061e61e1220caa8ca983e2be11950502aec7f8ceccd5dbbc765f84bbe7</v>
+      </c>
+      <c r="P16">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q16">
+        <v>308334</v>
+      </c>
+      <c r="R16" t="str">
+        <v>0bbc9c77638c7c237cb369177696e49574098f28b123f4f0ce08326318dd09c1</v>
+      </c>
+      <c r="S16" t="str">
+        <v>308455929289</v>
+      </c>
+      <c r="T16" t="str">
+        <v>679207823776</v>
+      </c>
+      <c r="U16">
+        <v>65829885</v>
+      </c>
+      <c r="V16" t="str">
+        <v>414397</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Digital Services Ltd</v>
+      </c>
+      <c r="D17">
+        <v>45765</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="str">
+        <v>license</v>
+      </c>
+      <c r="G17">
+        <v>11165.79</v>
+      </c>
+      <c r="H17">
+        <v>1116578.52</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Data Analytics Platform</v>
+      </c>
+      <c r="J17" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K17" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L17" t="str">
+        <v>0125f681937612b6e44185c47ad6cb5849463ef0e049c2b97f8fe8cb51f066c8</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="str">
+        <v>a22c4eec615f6e70914b27486b620a014633f115ebafbf2482275b0919479873</v>
+      </c>
+      <c r="O17" t="str">
+        <v>beca80cec063127449d2d3864639c24b952c2110f379b3e5f66c45786bf1e61a</v>
+      </c>
+      <c r="P17">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q17">
+        <v>103491</v>
+      </c>
+      <c r="R17" t="str">
+        <v>c3caf4aea0ac520a3b24d952ca67a4377edf787bb33335bf35e50a1cda8ab340</v>
+      </c>
+      <c r="S17" t="str">
+        <v>118921008539</v>
+      </c>
+      <c r="T17" t="str">
+        <v>236685297006</v>
+      </c>
+      <c r="U17">
+        <v>111657852</v>
+      </c>
+      <c r="V17" t="str">
+        <v>247099</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>TechCorp Solutions</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="D18">
+        <v>45855</v>
+      </c>
+      <c r="E18">
+        <v>57</v>
+      </c>
+      <c r="F18" t="str">
+        <v>project</v>
+      </c>
+      <c r="G18">
+        <v>15451.79</v>
+      </c>
+      <c r="H18">
+        <v>880752.12</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Security Audit and Assessment</v>
+      </c>
+      <c r="J18" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K18" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L18" t="str">
+        <v>0d9d9eb9f3f64e28aada8506cce5730240307cdb5c197b3e2b7f7aba4af58ee6</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="str">
+        <v>046b84c9bfa06e98305838b49be302355724728f98660fb09ecafae8d8df60ce</v>
+      </c>
+      <c r="O18" t="str">
+        <v>a22c4eec615f6e70914b27486b620a014633f115ebafbf2482275b0919479873</v>
+      </c>
+      <c r="P18">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q18">
+        <v>508301</v>
+      </c>
+      <c r="R18" t="str">
+        <v>a3ecfd2d018883dc857aa1c618b5a89d0e8e7a322d23f9cf7db92750620830e1</v>
+      </c>
+      <c r="S18" t="str">
+        <v>212605571799</v>
+      </c>
+      <c r="T18" t="str">
+        <v>300175195225</v>
+      </c>
+      <c r="U18">
+        <v>88075212</v>
+      </c>
+      <c r="V18" t="str">
+        <v>173150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="D19">
+        <v>45772</v>
+      </c>
+      <c r="E19">
+        <v>88</v>
+      </c>
+      <c r="F19" t="str">
+        <v>project</v>
+      </c>
+      <c r="G19">
+        <v>39706.56</v>
+      </c>
+      <c r="H19">
+        <v>3494177.28</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Mobile Application Development</v>
+      </c>
+      <c r="J19" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K19" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L19" t="str">
+        <v>625c1bbea63315486a1894307bba7e685166f6e97b5f7186ad9cae050b92bd08</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="str">
+        <v>b2902ee3174dba89e97968d64e2fd8e4db5c3f8c1234b3e08722480bc6b7c189</v>
+      </c>
+      <c r="O19" t="str">
+        <v>046b84c9bfa06e98305838b49be302355724728f98660fb09ecafae8d8df60ce</v>
+      </c>
+      <c r="P19">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q19">
+        <v>4577</v>
+      </c>
+      <c r="R19" t="str">
+        <v>ac27e3ae8ebfa6700427beee622b8d4044205b4dc62c21495ec6ac2880e34877</v>
+      </c>
+      <c r="S19" t="str">
+        <v>572910517902</v>
+      </c>
+      <c r="T19" t="str">
+        <v>69712261681</v>
+      </c>
+      <c r="U19">
+        <v>349417728</v>
+      </c>
+      <c r="V19" t="str">
+        <v>875831</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="D20">
+        <v>45881</v>
+      </c>
+      <c r="E20">
+        <v>78</v>
+      </c>
+      <c r="F20" t="str">
+        <v>GB-month</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20">
+        <v>3.79</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Cloud Storage Service Monthly</v>
+      </c>
+      <c r="J20" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K20" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L20" t="str">
+        <v>c4274c1761bd56b679765a98c7728fd1bf14245f99234141dfc79c2242d31c7a</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="str">
+        <v>dffee7bce5e78823c27c477b4281dd12c16082bfbf5a604665e30e59a47367ba</v>
+      </c>
+      <c r="O20" t="str">
+        <v>b2902ee3174dba89e97968d64e2fd8e4db5c3f8c1234b3e08722480bc6b7c189</v>
+      </c>
+      <c r="P20">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q20">
+        <v>375764</v>
+      </c>
+      <c r="R20" t="str">
+        <v>fc262a8bd63fec6e895fff71b27d57f378e50dd72fcd84a41e284188797d2f09</v>
+      </c>
+      <c r="S20" t="str">
+        <v>704101220203</v>
+      </c>
+      <c r="T20" t="str">
+        <v>342389737828</v>
+      </c>
+      <c r="U20">
+        <v>379</v>
+      </c>
+      <c r="V20" t="str">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="D21">
+        <v>45840</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21" t="str">
+        <v>hour</v>
+      </c>
+      <c r="G21">
+        <v>211.38</v>
+      </c>
+      <c r="H21">
+        <v>4439.07</v>
+      </c>
+      <c r="I21" t="str">
+        <v>System Integration Services</v>
+      </c>
+      <c r="J21" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K21" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L21" t="str">
+        <v>e4a8b958cfe23087164a78870d5f72c00e86c3da17bef1e3d7b58f2eb7e30e45</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="str">
+        <v>e3d8aa1418594c3a77ca11474afffb0be83c5b9b7e85002f52fff6414de5aaee</v>
+      </c>
+      <c r="O21" t="str">
+        <v>dffee7bce5e78823c27c477b4281dd12c16082bfbf5a604665e30e59a47367ba</v>
+      </c>
+      <c r="P21">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q21">
+        <v>851497</v>
+      </c>
+      <c r="R21" t="str">
+        <v>ed093f8b0cb0809ca4a2474ead84277fe93a787374391839141f970ba7120859</v>
+      </c>
+      <c r="S21" t="str">
+        <v>281274882315</v>
+      </c>
+      <c r="T21" t="str">
+        <v>482519488749</v>
+      </c>
+      <c r="U21">
+        <v>443907</v>
+      </c>
+      <c r="V21" t="str">
+        <v>443907</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C22" t="str">
+        <v>TechCorp Solutions</v>
+      </c>
+      <c r="D22">
+        <v>45850</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="str">
+        <v>unit</v>
+      </c>
+      <c r="G22">
+        <v>5102.68</v>
+      </c>
+      <c r="H22">
+        <v>10205.35</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Hardware Equipment Servers</v>
+      </c>
+      <c r="J22" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K22" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L22" t="str">
+        <v>16dd57463a1bbbf1054f9ea15199155c97c48574360dfc1acb2b393419207cd4</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="str">
+        <v>eb05353519b6264750770d760fb5cb9dccf349531a62c65d5971480b6a32d5e3</v>
+      </c>
+      <c r="O22" t="str">
+        <v>e3d8aa1418594c3a77ca11474afffb0be83c5b9b7e85002f52fff6414de5aaee</v>
+      </c>
+      <c r="P22">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q22">
+        <v>113000</v>
+      </c>
+      <c r="R22" t="str">
+        <v>1fdc4bd0631c511c8f4638f19aec66b831fbabfae1f4c8bfa311283147dfa6ea</v>
+      </c>
+      <c r="S22" t="str">
+        <v>738027579983</v>
+      </c>
+      <c r="T22" t="str">
+        <v>63908464660</v>
+      </c>
+      <c r="U22">
+        <v>1020535</v>
+      </c>
+      <c r="V22" t="str">
+        <v>1020535</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C23" t="str">
+        <v>TechCorp Solutions</v>
+      </c>
+      <c r="D23">
+        <v>45865</v>
+      </c>
+      <c r="E23">
+        <v>46</v>
+      </c>
+      <c r="F23" t="str">
+        <v>license</v>
+      </c>
+      <c r="G23">
+        <v>2953.76</v>
+      </c>
+      <c r="H23">
+        <v>135873.05</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Software License Annual Subscription</v>
+      </c>
+      <c r="J23" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K23" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L23" t="str">
+        <v>1b34dcc36a379522aeef31fc85d9e6744c42443e5c47a311a3569ded238ba1fc</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23" t="str">
+        <v>87ec97baeb2b4bd3d7e2167d6101d9fbabec181cc1e57d8aea46ccec2a2a37ab</v>
+      </c>
+      <c r="O23" t="str">
+        <v>eb05353519b6264750770d760fb5cb9dccf349531a62c65d5971480b6a32d5e3</v>
+      </c>
+      <c r="P23">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q23">
+        <v>904767</v>
+      </c>
+      <c r="R23" t="str">
+        <v>2e1db32a9b54d5d45ce816e4a9fcb5b108dcd0b9ffd308ffa6a0d7a629cd4f62</v>
+      </c>
+      <c r="S23" t="str">
+        <v>349256688578</v>
+      </c>
+      <c r="T23" t="str">
+        <v>331955411633</v>
+      </c>
+      <c r="U23">
+        <v>13587305</v>
+      </c>
+      <c r="V23" t="str">
+        <v>299784</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="D24">
+        <v>45757</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24" t="str">
+        <v>month</v>
+      </c>
+      <c r="G24">
+        <v>885.07</v>
+      </c>
+      <c r="H24">
+        <v>11505.91</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Database Management Service</v>
+      </c>
+      <c r="J24" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K24" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L24" t="str">
+        <v>c0adddeb9dfc4bcf34aa53e4b6a4d22ba61a6e866624d31df43f2e4bf984851e</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24" t="str">
+        <v>017e561f11c82e867717f9fefdefd5c3e1b9b1d008a8204388de2ec56a7473a3</v>
+      </c>
+      <c r="O24" t="str">
+        <v>87ec97baeb2b4bd3d7e2167d6101d9fbabec181cc1e57d8aea46ccec2a2a37ab</v>
+      </c>
+      <c r="P24">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q24">
+        <v>72017</v>
+      </c>
+      <c r="R24" t="str">
+        <v>c7602e6d95ab66e9da880c5b516f283464fe0cff9655b6a37ad2979ea6e7d2ba</v>
+      </c>
+      <c r="S24" t="str">
+        <v>524777271276</v>
+      </c>
+      <c r="T24" t="str">
+        <v>417540405492</v>
+      </c>
+      <c r="U24">
+        <v>1150591</v>
+      </c>
+      <c r="V24" t="str">
+        <v>128474</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="D25">
+        <v>45837</v>
+      </c>
+      <c r="E25">
+        <v>78</v>
+      </c>
+      <c r="F25" t="str">
+        <v>package</v>
+      </c>
+      <c r="G25">
+        <v>3275.32</v>
+      </c>
+      <c r="H25">
+        <v>255474.92</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Training and Support Package</v>
+      </c>
+      <c r="J25" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K25" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L25" t="str">
+        <v>9f242a3772f3cbf6bcc39acd79390b081ebecdeb53e7346a39fb321163a5c489</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="str">
+        <v>841e74989f2bfb06aa7b4905d7f92bef337333bbce8f89c4313ffb468ddd53a6</v>
+      </c>
+      <c r="O25" t="str">
+        <v>017e561f11c82e867717f9fefdefd5c3e1b9b1d008a8204388de2ec56a7473a3</v>
+      </c>
+      <c r="P25">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q25">
+        <v>678442</v>
+      </c>
+      <c r="R25" t="str">
+        <v>b676e66c86c3fa6235b70054342165793b4edfe3d1d4aae7e7f182524f28827c</v>
+      </c>
+      <c r="S25" t="str">
+        <v>87206380417</v>
+      </c>
+      <c r="T25" t="str">
+        <v>478485869364</v>
+      </c>
+      <c r="U25">
+        <v>25547492</v>
+      </c>
+      <c r="V25" t="str">
+        <v>1016684</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="D26">
+        <v>45784</v>
+      </c>
+      <c r="E26">
+        <v>62</v>
+      </c>
+      <c r="F26" t="str">
+        <v>license</v>
+      </c>
+      <c r="G26">
+        <v>2449.79</v>
+      </c>
+      <c r="H26">
+        <v>151887.16</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Software License Annual Subscription</v>
+      </c>
+      <c r="J26" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K26" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L26" t="str">
+        <v>121cfac118f3d361a7a9732c47336da1ba787b46d88a1e7b52fc6b62174b32ff</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="str">
+        <v>3bfaeeb8b439fab0ab6e26ddb6fc7e6c1b6edeb7ce2807f4ee7c6aeea6d9c499</v>
+      </c>
+      <c r="O26" t="str">
+        <v>841e74989f2bfb06aa7b4905d7f92bef337333bbce8f89c4313ffb468ddd53a6</v>
+      </c>
+      <c r="P26">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q26">
+        <v>401723</v>
+      </c>
+      <c r="R26" t="str">
+        <v>d962510a2b9c52828b4c3a9b59e9958e56e2cca828400a567639bc2efcd7927e</v>
+      </c>
+      <c r="S26" t="str">
+        <v>385002245179</v>
+      </c>
+      <c r="T26" t="str">
+        <v>678960546446</v>
+      </c>
+      <c r="U26">
+        <v>15188716</v>
+      </c>
+      <c r="V26" t="str">
+        <v>879078</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Supply Chain Logistics</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="D27">
+        <v>45881</v>
+      </c>
+      <c r="E27">
+        <v>46</v>
+      </c>
+      <c r="F27" t="str">
+        <v>hour</v>
+      </c>
+      <c r="G27">
+        <v>175.6</v>
+      </c>
+      <c r="H27">
+        <v>8077.82</v>
+      </c>
+      <c r="I27" t="str">
+        <v>System Integration Services</v>
+      </c>
+      <c r="J27" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K27" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L27" t="str">
+        <v>f9aa92405b7290bb8b6cc652d446b8288137e550cd2789f49923a7aa4c250c17</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" t="str">
+        <v>b299913244bdbdfaf2125c474f1d97019af0a1bad37840501a103d6faadb55f4</v>
+      </c>
+      <c r="O27" t="str">
+        <v>3bfaeeb8b439fab0ab6e26ddb6fc7e6c1b6edeb7ce2807f4ee7c6aeea6d9c499</v>
+      </c>
+      <c r="P27">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q27">
+        <v>197375</v>
+      </c>
+      <c r="R27" t="str">
+        <v>ca8c88501c72d191877c6f0049887855422accba78d5595fd4269fe6af854cb7</v>
+      </c>
+      <c r="S27" t="str">
+        <v>850693985072</v>
+      </c>
+      <c r="T27" t="str">
+        <v>294544390800</v>
+      </c>
+      <c r="U27">
+        <v>807782</v>
+      </c>
+      <c r="V27" t="str">
+        <v>807782</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="D28">
+        <v>45868</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28" t="str">
+        <v>license</v>
+      </c>
+      <c r="G28">
+        <v>2459.2</v>
+      </c>
+      <c r="H28">
+        <v>59020.88</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Software License Annual Subscription</v>
+      </c>
+      <c r="J28" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K28" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L28" t="str">
+        <v>1ddb7a12759c24c3264f214b00f2c2dffdee249ca9d884e42048dc26df055e2d</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28" t="str">
+        <v>f12be83a00d869115d9136d7df28c6ac4e88ae0ce0fcdab5a5972a8a375a7715</v>
+      </c>
+      <c r="O28" t="str">
+        <v>b299913244bdbdfaf2125c474f1d97019af0a1bad37840501a103d6faadb55f4</v>
+      </c>
+      <c r="P28">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q28">
+        <v>580311</v>
+      </c>
+      <c r="R28" t="str">
+        <v>bdd90d7e580da305f1735424306620d34c905f1247aac673818ad21fafc2ce98</v>
+      </c>
+      <c r="S28" t="str">
+        <v>442431449305</v>
+      </c>
+      <c r="T28" t="str">
+        <v>952975651270</v>
+      </c>
+      <c r="U28">
+        <v>5902088</v>
+      </c>
+      <c r="V28" t="str">
+        <v>791503</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Advanced Materials Co</v>
+      </c>
+      <c r="D29">
+        <v>45860</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="str">
+        <v>month</v>
+      </c>
+      <c r="G29">
+        <v>1363.28</v>
+      </c>
+      <c r="H29">
+        <v>8179.67</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Backup and Recovery Solution</v>
+      </c>
+      <c r="J29" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K29" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L29" t="str">
+        <v>147a29b185bc1d6169205c18d662be464e8d7633b7177d7e69ab67604573a197</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="str">
+        <v>15c9af344646fc964515b53c916336d8e6ab72baef1c83eb8fbceda9190b0ec0</v>
+      </c>
+      <c r="O29" t="str">
+        <v>f12be83a00d869115d9136d7df28c6ac4e88ae0ce0fcdab5a5972a8a375a7715</v>
+      </c>
+      <c r="P29">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q29">
+        <v>629191</v>
+      </c>
+      <c r="R29" t="str">
+        <v>346d5ad0890621a8c1dd1aba2386fc322f9c4fdae95e9966582e0ce8313959a5</v>
+      </c>
+      <c r="S29" t="str">
+        <v>293887903024</v>
+      </c>
+      <c r="T29" t="str">
+        <v>901016569617</v>
+      </c>
+      <c r="U29">
+        <v>817967</v>
+      </c>
+      <c r="V29" t="str">
+        <v>817967</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Retail Distribution Network</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Transportation Systems</v>
+      </c>
+      <c r="D30">
+        <v>45892</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30" t="str">
+        <v>license</v>
+      </c>
+      <c r="G30">
+        <v>9741.21</v>
+      </c>
+      <c r="H30">
+        <v>165600.53</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Data Analytics Platform</v>
+      </c>
+      <c r="J30" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K30" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L30" t="str">
+        <v>fcb2b2bd9bbc2cb7980f6ccbad8e89ad9f06ab69252371117078d61d1ea92223</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" t="str">
+        <v>920f27826816edc779f4b6e84d433d1c427f7b88fb29f4d1ac6c3513761015e6</v>
+      </c>
+      <c r="O30" t="str">
+        <v>15c9af344646fc964515b53c916336d8e6ab72baef1c83eb8fbceda9190b0ec0</v>
+      </c>
+      <c r="P30">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q30">
+        <v>478301</v>
+      </c>
+      <c r="R30" t="str">
+        <v>dc8c0a2b526ef86ae0966ea632b1c3a7898c9ee1d567f9e81afb3fa5683a20a3</v>
+      </c>
+      <c r="S30" t="str">
+        <v>315446408933</v>
+      </c>
+      <c r="T30" t="str">
+        <v>70940700950</v>
+      </c>
+      <c r="U30">
+        <v>16560053</v>
+      </c>
+      <c r="V30" t="str">
+        <v>206181</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Financial Services Group</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Global Manufacturing Inc</v>
+      </c>
+      <c r="D31">
+        <v>45872</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31" t="str">
+        <v>unit</v>
+      </c>
+      <c r="G31">
+        <v>4768.17</v>
+      </c>
+      <c r="H31">
+        <v>85827.02</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Hardware Equipment Servers</v>
+      </c>
+      <c r="J31" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="K31" t="str">
+        <v>LS0tLS1CRUdJTiBQVUJMSUMgS0VZLS0t</v>
+      </c>
+      <c r="L31" t="str">
+        <v>9d44bc690115937558778e14f407b7cdb091db4be6e125a4f21c842722a62ebc</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" t="str">
+        <v>1274c74327e0c97e80ace3cb78db212814456f48fb197bec4304dfc6575ac18e</v>
+      </c>
+      <c r="O31" t="str">
+        <v>920f27826816edc779f4b6e84d433d1c427f7b88fb29f4d1ac6c3513761015e6</v>
+      </c>
+      <c r="P31">
+        <v>1759580000000</v>
+      </c>
+      <c r="Q31">
+        <v>515638</v>
+      </c>
+      <c r="R31" t="str">
+        <v>54177440b455d8e892e91548f5ea654c85aa86019717075bf90ecc502f77eb70</v>
+      </c>
+      <c r="S31" t="str">
+        <v>229249240737</v>
+      </c>
+      <c r="T31" t="str">
+        <v>452913620445</v>
+      </c>
+      <c r="U31">
+        <v>8582702</v>
+      </c>
+      <c r="V31" t="str">
+        <v>405766</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V31"/>
   </ignoredErrors>
 </worksheet>
 </file>